--- a/TCS_LDAS0328_Valid／Ｗビンオーダー登録.xlsx
+++ b/TCS_LDAS0328_Valid／Ｗビンオーダー登録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45637560-384C-4DC6-9FD6-6D151F165A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5E369A-9734-4F12-9AD0-6DD8507D4771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="341">
   <si>
     <t>確認者</t>
     <rPh sb="0" eb="2">
@@ -1830,10 +1830,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>初期作成</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>登録するWビンオーダーの各項目に対するバリデーション。</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1865,26 +1861,18 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <t>LDAS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0409</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ない</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>余暁東</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>余暁東</t>
+  </si>
+  <si>
+    <t>新規作成</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2443,16 +2431,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="20"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="18">
@@ -2922,7 +2909,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3371,6 +3358,12 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3452,11 +3445,8 @@
     <xf numFmtId="0" fontId="64" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4515,9 +4505,9 @@
       <definedName name="BS入力"/>
       <definedName name="PL入力"/>
       <definedName name="コメント入力"/>
+      <definedName name="売上入力"/>
       <definedName name="人員入力"/>
       <definedName name="総表印刷"/>
-      <definedName name="売上入力"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -5380,171 +5370,173 @@
   </cols>
   <sheetData>
     <row r="12" spans="2:8">
-      <c r="B12" s="189" t="s">
+      <c r="B12" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="191"/>
-      <c r="D12" s="189" t="s">
+      <c r="C12" s="193"/>
+      <c r="D12" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="191"/>
-      <c r="F12" s="189" t="s">
+      <c r="E12" s="193"/>
+      <c r="F12" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="190"/>
-      <c r="H12" s="191"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="193"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="194" t="s">
+      <c r="B13" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="196"/>
-      <c r="D13" s="200" t="s">
+      <c r="C13" s="198"/>
+      <c r="D13" s="202" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="200"/>
-      <c r="F13" s="201" t="s">
+      <c r="E13" s="202"/>
+      <c r="F13" s="203" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="201"/>
-      <c r="H13" s="201"/>
+      <c r="G13" s="203"/>
+      <c r="H13" s="203"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="189" t="s">
+      <c r="B16" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="191"/>
-      <c r="D16" s="194" t="s">
+      <c r="C16" s="193"/>
+      <c r="D16" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="195"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="196"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="198"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="189" t="s">
+      <c r="B17" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="191"/>
-      <c r="D17" s="194"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="196"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="198"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="189" t="s">
+      <c r="B18" s="191" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="191"/>
-      <c r="D18" s="197"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="199"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="201"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="189" t="s">
+      <c r="B20" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="190"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="190"/>
-      <c r="H20" s="191"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="192"/>
+      <c r="H20" s="193"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="2"/>
-      <c r="C21" s="192" t="s">
+      <c r="C21" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="193"/>
-      <c r="E21" s="192" t="s">
+      <c r="D21" s="195"/>
+      <c r="E21" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="193"/>
-      <c r="G21" s="192" t="s">
+      <c r="F21" s="195"/>
+      <c r="G21" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="193"/>
+      <c r="H21" s="195"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="185" t="s">
-        <v>340</v>
-      </c>
-      <c r="D22" s="185"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="186"/>
+      <c r="C22" s="187" t="s">
+        <v>338</v>
+      </c>
+      <c r="D22" s="187"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="188"/>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="188"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="186"/>
+      <c r="C23" s="190">
+        <v>45947</v>
+      </c>
+      <c r="D23" s="188"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="190"/>
+      <c r="H23" s="188"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="189" t="s">
+      <c r="B25" s="191" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="190"/>
-      <c r="D25" s="190"/>
-      <c r="E25" s="190"/>
-      <c r="F25" s="190"/>
-      <c r="G25" s="190"/>
-      <c r="H25" s="191"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="193"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="2"/>
-      <c r="C26" s="192" t="s">
+      <c r="C26" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="193"/>
-      <c r="E26" s="192" t="s">
+      <c r="D26" s="195"/>
+      <c r="E26" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="193"/>
-      <c r="G26" s="192" t="s">
+      <c r="F26" s="195"/>
+      <c r="G26" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="193"/>
+      <c r="H26" s="195"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="184" t="s">
-        <v>331</v>
-      </c>
-      <c r="D27" s="185"/>
-      <c r="E27" s="186"/>
-      <c r="F27" s="186"/>
-      <c r="G27" s="186"/>
-      <c r="H27" s="186"/>
+      <c r="C27" s="186" t="s">
+        <v>330</v>
+      </c>
+      <c r="D27" s="187"/>
+      <c r="E27" s="188"/>
+      <c r="F27" s="188"/>
+      <c r="G27" s="188"/>
+      <c r="H27" s="188"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="187">
+      <c r="C28" s="189">
         <v>45960</v>
       </c>
-      <c r="D28" s="185"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="188"/>
-      <c r="H28" s="186"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="190"/>
+      <c r="H28" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -5594,7 +5586,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.453125" defaultRowHeight="15"/>
   <cols>
@@ -5650,14 +5644,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="177">
-        <v>45960</v>
+        <v>45947</v>
       </c>
       <c r="D3" s="178" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E3" s="179"/>
       <c r="F3" s="180" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
@@ -6082,14 +6076,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="25.5" customHeight="1">
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="203" t="s">
-        <v>329</v>
-      </c>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
+      <c r="C2" s="205" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
       <c r="F2" s="10" t="s">
         <v>28</v>
       </c>
@@ -6097,10 +6091,10 @@
         <f>COUNTIF(G6:G475,"*")</f>
         <v>58</v>
       </c>
-      <c r="H2" s="204" t="s">
+      <c r="H2" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="204"/>
+      <c r="I2" s="206"/>
       <c r="J2" s="11">
         <f>COUNTIF(L6:L475,"*")</f>
         <v>58</v>
@@ -6121,10 +6115,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1">
-      <c r="B3" s="202"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
       <c r="F3" s="12" t="s">
         <v>32</v>
       </c>
@@ -6132,10 +6126,10 @@
         <f>J2/G2</f>
         <v>1</v>
       </c>
-      <c r="H3" s="204" t="s">
+      <c r="H3" s="206" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="204"/>
+      <c r="I3" s="206"/>
       <c r="J3" s="15">
         <f>IF(J2=0,0,N2/J2)</f>
         <v>1</v>
@@ -6247,14 +6241,12 @@
         <v>268</v>
       </c>
       <c r="K7" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L7" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M7" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M7" s="20"/>
       <c r="N7" s="20"/>
     </row>
     <row r="8" spans="1:14" ht="25">
@@ -6270,7 +6262,7 @@
         <v>240</v>
       </c>
       <c r="F8" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>49</v>
@@ -6285,14 +6277,12 @@
         <v>268</v>
       </c>
       <c r="K8" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L8" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M8" s="20"/>
       <c r="N8" s="20"/>
     </row>
     <row r="9" spans="1:14" ht="13">
@@ -6310,7 +6300,7 @@
         <v>69</v>
       </c>
       <c r="F9" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>49</v>
@@ -6325,14 +6315,12 @@
         <v>268</v>
       </c>
       <c r="K9" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L9" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M9" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M9" s="20"/>
       <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" ht="25">
@@ -6348,7 +6336,7 @@
         <v>241</v>
       </c>
       <c r="F10" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>49</v>
@@ -6363,14 +6351,12 @@
         <v>268</v>
       </c>
       <c r="K10" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L10" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M10" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M10" s="20"/>
       <c r="N10" s="20"/>
     </row>
     <row r="11" spans="1:14" ht="25">
@@ -6386,7 +6372,7 @@
         <v>241</v>
       </c>
       <c r="F11" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G11" s="20" t="s">
         <v>49</v>
@@ -6401,14 +6387,12 @@
         <v>268</v>
       </c>
       <c r="K11" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L11" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M11" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M11" s="20"/>
       <c r="N11" s="20"/>
     </row>
     <row r="12" spans="1:14" ht="13">
@@ -6426,7 +6410,7 @@
         <v>69</v>
       </c>
       <c r="F12" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>49</v>
@@ -6441,14 +6425,12 @@
         <v>268</v>
       </c>
       <c r="K12" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L12" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M12" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M12" s="20"/>
       <c r="N12" s="20"/>
     </row>
     <row r="13" spans="1:14" ht="25">
@@ -6464,7 +6446,7 @@
         <v>245</v>
       </c>
       <c r="F13" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>49</v>
@@ -6479,14 +6461,12 @@
         <v>268</v>
       </c>
       <c r="K13" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L13" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M13" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M13" s="20"/>
       <c r="N13" s="20"/>
     </row>
     <row r="14" spans="1:14" ht="13">
@@ -6504,7 +6484,7 @@
         <v>69</v>
       </c>
       <c r="F14" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>49</v>
@@ -6519,14 +6499,12 @@
         <v>268</v>
       </c>
       <c r="K14" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L14" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M14" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M14" s="20"/>
       <c r="N14" s="20"/>
     </row>
     <row r="15" spans="1:14" ht="25">
@@ -6542,7 +6520,7 @@
         <v>244</v>
       </c>
       <c r="F15" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>49</v>
@@ -6557,14 +6535,12 @@
         <v>268</v>
       </c>
       <c r="K15" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M15" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M15" s="20"/>
       <c r="N15" s="20"/>
     </row>
     <row r="16" spans="1:14" ht="13">
@@ -6582,7 +6558,7 @@
         <v>69</v>
       </c>
       <c r="F16" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>49</v>
@@ -6597,14 +6573,12 @@
         <v>268</v>
       </c>
       <c r="K16" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L16" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M16" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M16" s="20"/>
       <c r="N16" s="20"/>
     </row>
     <row r="17" spans="1:14" ht="25">
@@ -6620,7 +6594,7 @@
         <v>247</v>
       </c>
       <c r="F17" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>49</v>
@@ -6635,14 +6609,12 @@
         <v>268</v>
       </c>
       <c r="K17" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L17" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M17" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M17" s="20"/>
       <c r="N17" s="20"/>
     </row>
     <row r="18" spans="1:14" ht="25">
@@ -6658,7 +6630,7 @@
         <v>247</v>
       </c>
       <c r="F18" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>49</v>
@@ -6673,14 +6645,12 @@
         <v>268</v>
       </c>
       <c r="K18" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L18" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M18" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M18" s="20"/>
       <c r="N18" s="20"/>
     </row>
     <row r="19" spans="1:14" ht="13">
@@ -6698,7 +6668,7 @@
         <v>69</v>
       </c>
       <c r="F19" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>49</v>
@@ -6713,14 +6683,12 @@
         <v>268</v>
       </c>
       <c r="K19" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L19" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M19" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M19" s="20"/>
       <c r="N19" s="20"/>
     </row>
     <row r="20" spans="1:14" ht="25">
@@ -6736,7 +6704,7 @@
         <v>249</v>
       </c>
       <c r="F20" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>49</v>
@@ -6751,14 +6719,12 @@
         <v>268</v>
       </c>
       <c r="K20" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L20" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M20" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M20" s="20"/>
       <c r="N20" s="20"/>
     </row>
     <row r="21" spans="1:14" ht="25">
@@ -6774,7 +6740,7 @@
         <v>249</v>
       </c>
       <c r="F21" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>49</v>
@@ -6789,14 +6755,12 @@
         <v>268</v>
       </c>
       <c r="K21" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L21" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M21" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M21" s="20"/>
       <c r="N21" s="20"/>
     </row>
     <row r="22" spans="1:14" ht="13">
@@ -6814,7 +6778,7 @@
         <v>69</v>
       </c>
       <c r="F22" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>49</v>
@@ -6829,14 +6793,12 @@
         <v>268</v>
       </c>
       <c r="K22" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L22" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M22" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M22" s="20"/>
       <c r="N22" s="20"/>
     </row>
     <row r="23" spans="1:14" ht="25">
@@ -6852,7 +6814,7 @@
         <v>250</v>
       </c>
       <c r="F23" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>49</v>
@@ -6867,14 +6829,12 @@
         <v>268</v>
       </c>
       <c r="K23" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L23" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M23" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M23" s="20"/>
       <c r="N23" s="20"/>
     </row>
     <row r="24" spans="1:14" ht="25">
@@ -6890,7 +6850,7 @@
         <v>250</v>
       </c>
       <c r="F24" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>49</v>
@@ -6905,14 +6865,12 @@
         <v>268</v>
       </c>
       <c r="K24" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L24" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M24" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M24" s="20"/>
       <c r="N24" s="20"/>
     </row>
     <row r="25" spans="1:14" ht="13">
@@ -6930,7 +6888,7 @@
         <v>69</v>
       </c>
       <c r="F25" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>49</v>
@@ -6945,14 +6903,12 @@
         <v>268</v>
       </c>
       <c r="K25" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L25" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M25" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M25" s="20"/>
       <c r="N25" s="20"/>
     </row>
     <row r="26" spans="1:14" ht="25">
@@ -6968,7 +6924,7 @@
         <v>252</v>
       </c>
       <c r="F26" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>49</v>
@@ -6983,14 +6939,12 @@
         <v>268</v>
       </c>
       <c r="K26" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L26" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M26" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M26" s="20"/>
       <c r="N26" s="20"/>
     </row>
     <row r="27" spans="1:14" ht="25">
@@ -7006,7 +6960,7 @@
         <v>252</v>
       </c>
       <c r="F27" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>49</v>
@@ -7021,14 +6975,12 @@
         <v>268</v>
       </c>
       <c r="K27" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L27" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M27" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M27" s="20"/>
       <c r="N27" s="20"/>
     </row>
     <row r="28" spans="1:14" ht="13">
@@ -7044,7 +6996,7 @@
         <v>69</v>
       </c>
       <c r="F28" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>49</v>
@@ -7059,14 +7011,12 @@
         <v>268</v>
       </c>
       <c r="K28" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L28" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M28" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M28" s="20"/>
       <c r="N28" s="20"/>
     </row>
     <row r="29" spans="1:14" ht="37.5">
@@ -7082,7 +7032,7 @@
         <v>256</v>
       </c>
       <c r="F29" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>49</v>
@@ -7097,14 +7047,12 @@
         <v>268</v>
       </c>
       <c r="K29" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L29" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M29" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M29" s="20"/>
       <c r="N29" s="20"/>
     </row>
     <row r="30" spans="1:14" ht="13">
@@ -7122,7 +7070,7 @@
         <v>69</v>
       </c>
       <c r="F30" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>49</v>
@@ -7137,14 +7085,12 @@
         <v>268</v>
       </c>
       <c r="K30" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L30" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M30" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M30" s="20"/>
       <c r="N30" s="20"/>
     </row>
     <row r="31" spans="1:14" ht="25">
@@ -7160,7 +7106,7 @@
         <v>254</v>
       </c>
       <c r="F31" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>49</v>
@@ -7175,14 +7121,12 @@
         <v>268</v>
       </c>
       <c r="K31" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L31" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M31" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M31" s="20"/>
       <c r="N31" s="20"/>
     </row>
     <row r="32" spans="1:14" ht="37.5">
@@ -7198,7 +7142,7 @@
         <v>258</v>
       </c>
       <c r="F32" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G32" s="20" t="s">
         <v>49</v>
@@ -7213,14 +7157,12 @@
         <v>268</v>
       </c>
       <c r="K32" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L32" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M32" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M32" s="20"/>
       <c r="N32" s="20"/>
     </row>
     <row r="33" spans="1:14" ht="37.5">
@@ -7236,7 +7178,7 @@
         <v>258</v>
       </c>
       <c r="F33" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>49</v>
@@ -7251,14 +7193,12 @@
         <v>268</v>
       </c>
       <c r="K33" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L33" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M33" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M33" s="20"/>
       <c r="N33" s="20"/>
     </row>
     <row r="34" spans="1:14" ht="13">
@@ -7276,7 +7216,7 @@
         <v>69</v>
       </c>
       <c r="F34" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>49</v>
@@ -7291,14 +7231,12 @@
         <v>268</v>
       </c>
       <c r="K34" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L34" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M34" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M34" s="20"/>
       <c r="N34" s="20"/>
     </row>
     <row r="35" spans="1:14" ht="37.5">
@@ -7314,7 +7252,7 @@
         <v>259</v>
       </c>
       <c r="F35" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G35" s="20" t="s">
         <v>49</v>
@@ -7329,14 +7267,12 @@
         <v>268</v>
       </c>
       <c r="K35" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L35" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M35" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M35" s="20"/>
       <c r="N35" s="20"/>
     </row>
     <row r="36" spans="1:14" ht="37.5">
@@ -7352,7 +7288,7 @@
         <v>259</v>
       </c>
       <c r="F36" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G36" s="20" t="s">
         <v>49</v>
@@ -7367,14 +7303,12 @@
         <v>268</v>
       </c>
       <c r="K36" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L36" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M36" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M36" s="20"/>
       <c r="N36" s="20"/>
     </row>
     <row r="37" spans="1:14" ht="13">
@@ -7392,7 +7326,7 @@
         <v>69</v>
       </c>
       <c r="F37" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G37" s="21" t="s">
         <v>49</v>
@@ -7407,14 +7341,12 @@
         <v>268</v>
       </c>
       <c r="K37" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L37" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M37" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M37" s="20"/>
       <c r="N37" s="20"/>
     </row>
     <row r="38" spans="1:14" ht="37.5">
@@ -7430,7 +7362,7 @@
         <v>260</v>
       </c>
       <c r="F38" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>49</v>
@@ -7445,14 +7377,12 @@
         <v>268</v>
       </c>
       <c r="K38" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L38" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M38" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M38" s="20"/>
       <c r="N38" s="20"/>
     </row>
     <row r="39" spans="1:14" ht="37.5">
@@ -7468,7 +7398,7 @@
         <v>260</v>
       </c>
       <c r="F39" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>49</v>
@@ -7483,14 +7413,12 @@
         <v>268</v>
       </c>
       <c r="K39" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L39" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M39" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M39" s="20"/>
       <c r="N39" s="20"/>
     </row>
     <row r="40" spans="1:14" ht="13">
@@ -7508,7 +7436,7 @@
         <v>69</v>
       </c>
       <c r="F40" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>49</v>
@@ -7523,14 +7451,12 @@
         <v>268</v>
       </c>
       <c r="K40" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L40" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M40" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M40" s="20"/>
       <c r="N40" s="20"/>
     </row>
     <row r="41" spans="1:14" ht="37.5">
@@ -7546,7 +7472,7 @@
         <v>261</v>
       </c>
       <c r="F41" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>49</v>
@@ -7561,14 +7487,12 @@
         <v>268</v>
       </c>
       <c r="K41" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L41" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M41" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M41" s="20"/>
       <c r="N41" s="20"/>
     </row>
     <row r="42" spans="1:14" ht="37.5">
@@ -7584,7 +7508,7 @@
         <v>261</v>
       </c>
       <c r="F42" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>49</v>
@@ -7599,14 +7523,12 @@
         <v>268</v>
       </c>
       <c r="K42" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L42" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M42" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M42" s="20"/>
       <c r="N42" s="20"/>
     </row>
     <row r="43" spans="1:14">
@@ -7680,7 +7602,7 @@
         <v>69</v>
       </c>
       <c r="F46" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>49</v>
@@ -7695,14 +7617,12 @@
         <v>268</v>
       </c>
       <c r="K46" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L46" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M46" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M46" s="20"/>
       <c r="N46" s="20"/>
     </row>
     <row r="47" spans="1:14" ht="25">
@@ -7722,7 +7642,7 @@
         <v>69</v>
       </c>
       <c r="F47" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G47" s="21" t="s">
         <v>49</v>
@@ -7737,14 +7657,12 @@
         <v>268</v>
       </c>
       <c r="K47" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L47" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M47" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M47" s="20"/>
       <c r="N47" s="20"/>
     </row>
     <row r="48" spans="1:14">
@@ -7782,7 +7700,7 @@
         <v>69</v>
       </c>
       <c r="F49" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G49" s="20" t="s">
         <v>49</v>
@@ -7797,14 +7715,12 @@
         <v>268</v>
       </c>
       <c r="K49" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L49" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M49" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M49" s="20"/>
       <c r="N49" s="20"/>
     </row>
     <row r="50" spans="1:14" ht="13">
@@ -7820,7 +7736,7 @@
         <v>272</v>
       </c>
       <c r="F50" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G50" s="20" t="s">
         <v>49</v>
@@ -7835,14 +7751,12 @@
         <v>268</v>
       </c>
       <c r="K50" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L50" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M50" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M50" s="20"/>
       <c r="N50" s="20"/>
     </row>
     <row r="51" spans="1:14" ht="13">
@@ -7858,7 +7772,7 @@
         <v>273</v>
       </c>
       <c r="F51" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G51" s="20" t="s">
         <v>49</v>
@@ -7873,14 +7787,12 @@
         <v>268</v>
       </c>
       <c r="K51" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L51" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M51" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M51" s="20"/>
       <c r="N51" s="20"/>
     </row>
     <row r="52" spans="1:14" ht="13">
@@ -7900,7 +7812,7 @@
         <v>69</v>
       </c>
       <c r="F52" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G52" s="20" t="s">
         <v>49</v>
@@ -7915,14 +7827,12 @@
         <v>268</v>
       </c>
       <c r="K52" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L52" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M52" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M52" s="20"/>
       <c r="N52" s="20"/>
     </row>
     <row r="53" spans="1:14" ht="13">
@@ -7938,7 +7848,7 @@
         <v>272</v>
       </c>
       <c r="F53" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G53" s="20" t="s">
         <v>49</v>
@@ -7953,14 +7863,12 @@
         <v>268</v>
       </c>
       <c r="K53" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L53" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M53" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M53" s="20"/>
       <c r="N53" s="20"/>
     </row>
     <row r="54" spans="1:14" ht="13">
@@ -7976,7 +7884,7 @@
         <v>273</v>
       </c>
       <c r="F54" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G54" s="20" t="s">
         <v>49</v>
@@ -7991,14 +7899,12 @@
         <v>268</v>
       </c>
       <c r="K54" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L54" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M54" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M54" s="20"/>
       <c r="N54" s="20"/>
     </row>
     <row r="55" spans="1:14" ht="13">
@@ -8018,7 +7924,7 @@
         <v>69</v>
       </c>
       <c r="F55" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G55" s="20" t="s">
         <v>49</v>
@@ -8033,14 +7939,12 @@
         <v>268</v>
       </c>
       <c r="K55" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L55" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M55" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M55" s="20"/>
       <c r="N55" s="20"/>
     </row>
     <row r="56" spans="1:14" ht="13">
@@ -8056,7 +7960,7 @@
         <v>272</v>
       </c>
       <c r="F56" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G56" s="20" t="s">
         <v>49</v>
@@ -8071,14 +7975,12 @@
         <v>268</v>
       </c>
       <c r="K56" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L56" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M56" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M56" s="20"/>
       <c r="N56" s="20"/>
     </row>
     <row r="57" spans="1:14" ht="13">
@@ -8094,7 +7996,7 @@
         <v>273</v>
       </c>
       <c r="F57" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G57" s="20" t="s">
         <v>49</v>
@@ -8109,14 +8011,12 @@
         <v>268</v>
       </c>
       <c r="K57" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L57" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M57" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M57" s="20"/>
       <c r="N57" s="20"/>
     </row>
     <row r="58" spans="1:14">
@@ -8154,7 +8054,7 @@
         <v>53</v>
       </c>
       <c r="F59" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>49</v>
@@ -8169,14 +8069,12 @@
         <v>268</v>
       </c>
       <c r="K59" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L59" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M59" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M59" s="20"/>
       <c r="N59" s="20"/>
     </row>
     <row r="60" spans="1:14" ht="13">
@@ -8194,7 +8092,7 @@
         <v>70</v>
       </c>
       <c r="F60" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G60" s="21" t="s">
         <v>49</v>
@@ -8209,14 +8107,12 @@
         <v>268</v>
       </c>
       <c r="K60" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L60" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M60" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M60" s="20"/>
       <c r="N60" s="20"/>
     </row>
     <row r="61" spans="1:14" ht="13">
@@ -8234,7 +8130,7 @@
         <v>71</v>
       </c>
       <c r="F61" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>49</v>
@@ -8249,14 +8145,12 @@
         <v>268</v>
       </c>
       <c r="K61" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L61" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M61" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M61" s="20"/>
       <c r="N61" s="20"/>
     </row>
     <row r="62" spans="1:14" ht="13">
@@ -8274,7 +8168,7 @@
         <v>60</v>
       </c>
       <c r="F62" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>49</v>
@@ -8289,14 +8183,12 @@
         <v>268</v>
       </c>
       <c r="K62" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L62" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M62" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M62" s="20"/>
       <c r="N62" s="20"/>
     </row>
     <row r="63" spans="1:14" ht="13">
@@ -8314,7 +8206,7 @@
         <v>63</v>
       </c>
       <c r="F63" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G63" s="21" t="s">
         <v>49</v>
@@ -8329,14 +8221,12 @@
         <v>268</v>
       </c>
       <c r="K63" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L63" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M63" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M63" s="20"/>
       <c r="N63" s="20"/>
     </row>
     <row r="64" spans="1:14" ht="13">
@@ -8356,7 +8246,7 @@
         <v>76</v>
       </c>
       <c r="F64" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G64" s="21" t="s">
         <v>49</v>
@@ -8371,14 +8261,12 @@
         <v>268</v>
       </c>
       <c r="K64" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L64" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M64" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M64" s="20"/>
       <c r="N64" s="20"/>
     </row>
     <row r="65" spans="1:14" ht="13">
@@ -8398,7 +8286,7 @@
         <v>65</v>
       </c>
       <c r="F65" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G65" s="21" t="s">
         <v>49</v>
@@ -8413,14 +8301,12 @@
         <v>268</v>
       </c>
       <c r="K65" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L65" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M65" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M65" s="20"/>
       <c r="N65" s="20"/>
     </row>
     <row r="66" spans="1:14" ht="13">
@@ -8438,7 +8324,7 @@
         <v>67</v>
       </c>
       <c r="F66" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G66" s="21" t="s">
         <v>49</v>
@@ -8453,14 +8339,12 @@
         <v>268</v>
       </c>
       <c r="K66" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L66" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M66" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M66" s="20"/>
       <c r="N66" s="20"/>
     </row>
     <row r="67" spans="1:14" ht="13">
@@ -8478,7 +8362,7 @@
         <v>104</v>
       </c>
       <c r="F67" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G67" s="21" t="s">
         <v>49</v>
@@ -8493,14 +8377,12 @@
         <v>268</v>
       </c>
       <c r="K67" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L67" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M67" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M67" s="20"/>
       <c r="N67" s="20"/>
     </row>
     <row r="68" spans="1:14" ht="13">
@@ -8518,7 +8400,7 @@
         <v>298</v>
       </c>
       <c r="F68" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G68" s="21" t="s">
         <v>49</v>
@@ -8533,14 +8415,12 @@
         <v>268</v>
       </c>
       <c r="K68" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L68" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M68" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M68" s="20"/>
       <c r="N68" s="20"/>
     </row>
     <row r="69" spans="1:14" ht="13">
@@ -8558,7 +8438,7 @@
         <v>301</v>
       </c>
       <c r="F69" s="114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G69" s="21" t="s">
         <v>49</v>
@@ -8573,14 +8453,12 @@
         <v>268</v>
       </c>
       <c r="K69" s="181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L69" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="M69" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="M69" s="20"/>
       <c r="N69" s="20"/>
     </row>
     <row r="70" spans="1:14">
@@ -10721,6 +10599,7 @@
     <hyperlink ref="F47" location="主処理!A1" display="主処理" xr:uid="{378BC74E-E846-497A-9B7D-CABDAD39BD32}"/>
     <hyperlink ref="F49:F57" location="主処理!A1" display="主処理" xr:uid="{A4B98C2C-438C-4C76-927D-2A68EFBF9DA4}"/>
     <hyperlink ref="F59:F69" location="主処理!A1" display="主処理" xr:uid="{6E348794-06CB-4828-8E2A-D7EE2E467F89}"/>
+    <hyperlink ref="F7" location="引数チェック!A1" display="引数チェック" xr:uid="{14786F9C-1D3B-4371-9374-5DBD8DC138F5}"/>
   </hyperlinks>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
@@ -11517,18 +11396,18 @@
     </row>
     <row r="2" spans="1:41" s="62" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A2" s="61"/>
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="209" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
     </row>
     <row r="3" spans="1:41" s="62" customFormat="1" ht="13.5" customHeight="1" thickTop="1">
       <c r="A3" s="63"/>
@@ -11618,19 +11497,19 @@
       <c r="E9" s="40"/>
     </row>
     <row r="10" spans="1:41" ht="15" customHeight="1">
-      <c r="A10" s="211" t="s">
-        <v>339</v>
-      </c>
-      <c r="B10" s="211"/>
-      <c r="C10" s="211"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="211"/>
-      <c r="K10" s="211"/>
+      <c r="A10" s="213" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" s="213"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="213"/>
       <c r="L10" s="182"/>
       <c r="M10" s="182"/>
       <c r="N10" s="182"/>
@@ -11647,17 +11526,17 @@
       <c r="Y10" s="182"/>
     </row>
     <row r="11" spans="1:41" ht="19.5" customHeight="1">
-      <c r="A11" s="211"/>
-      <c r="B11" s="211"/>
-      <c r="C11" s="211"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="211"/>
-      <c r="K11" s="211"/>
+      <c r="A11" s="213"/>
+      <c r="B11" s="213"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="213"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="213"/>
       <c r="L11" s="182"/>
       <c r="M11" s="182"/>
       <c r="N11" s="182"/>
@@ -11690,17 +11569,17 @@
       <c r="AO11" s="78"/>
     </row>
     <row r="12" spans="1:41" s="80" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A12" s="211"/>
-      <c r="B12" s="211"/>
-      <c r="C12" s="211"/>
-      <c r="D12" s="211"/>
-      <c r="E12" s="211"/>
-      <c r="F12" s="211"/>
-      <c r="G12" s="211"/>
-      <c r="H12" s="211"/>
-      <c r="I12" s="211"/>
-      <c r="J12" s="211"/>
-      <c r="K12" s="211"/>
+      <c r="A12" s="213"/>
+      <c r="B12" s="213"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="213"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="213"/>
+      <c r="K12" s="213"/>
       <c r="L12" s="182"/>
       <c r="M12" s="182"/>
       <c r="N12" s="182"/>
@@ -11730,17 +11609,17 @@
       <c r="AL12" s="136"/>
     </row>
     <row r="13" spans="1:41" s="83" customFormat="1" ht="93.75" customHeight="1">
-      <c r="A13" s="211"/>
-      <c r="B13" s="211"/>
-      <c r="C13" s="211"/>
-      <c r="D13" s="211"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="211"/>
-      <c r="K13" s="211"/>
+      <c r="A13" s="213"/>
+      <c r="B13" s="213"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="213"/>
+      <c r="J13" s="213"/>
+      <c r="K13" s="213"/>
       <c r="L13" s="182"/>
       <c r="M13" s="182"/>
       <c r="N13" s="182"/>
@@ -12833,22 +12712,22 @@
       <c r="A38" s="127"/>
       <c r="B38" s="131"/>
       <c r="C38" s="132"/>
-      <c r="D38" s="208"/>
-      <c r="E38" s="208"/>
-      <c r="F38" s="208"/>
-      <c r="G38" s="208"/>
-      <c r="H38" s="208"/>
-      <c r="I38" s="208"/>
-      <c r="J38" s="208"/>
-      <c r="K38" s="208"/>
-      <c r="L38" s="208"/>
-      <c r="M38" s="208"/>
-      <c r="N38" s="208"/>
-      <c r="O38" s="208"/>
-      <c r="P38" s="208"/>
-      <c r="Q38" s="208"/>
-      <c r="R38" s="208"/>
-      <c r="S38" s="208"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="210"/>
+      <c r="F38" s="210"/>
+      <c r="G38" s="210"/>
+      <c r="H38" s="210"/>
+      <c r="I38" s="210"/>
+      <c r="J38" s="210"/>
+      <c r="K38" s="210"/>
+      <c r="L38" s="210"/>
+      <c r="M38" s="210"/>
+      <c r="N38" s="210"/>
+      <c r="O38" s="210"/>
+      <c r="P38" s="210"/>
+      <c r="Q38" s="210"/>
+      <c r="R38" s="210"/>
+      <c r="S38" s="210"/>
       <c r="T38" s="166"/>
       <c r="U38" s="166"/>
       <c r="V38" s="166"/>
@@ -12877,9 +12756,9 @@
       <c r="AS38" s="127"/>
     </row>
     <row r="39" spans="1:45" s="80" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A39" s="206"/>
-      <c r="B39" s="206"/>
-      <c r="C39" s="206"/>
+      <c r="A39" s="208"/>
+      <c r="B39" s="208"/>
+      <c r="C39" s="208"/>
       <c r="D39" s="168"/>
       <c r="E39" s="168"/>
       <c r="F39" s="168"/>
@@ -13743,11 +13622,11 @@
       <c r="AO57" s="78"/>
     </row>
     <row r="58" spans="1:45">
-      <c r="A58" s="209"/>
-      <c r="B58" s="210"/>
-      <c r="C58" s="210"/>
-      <c r="D58" s="210"/>
-      <c r="E58" s="210"/>
+      <c r="A58" s="211"/>
+      <c r="B58" s="212"/>
+      <c r="C58" s="212"/>
+      <c r="D58" s="212"/>
+      <c r="E58" s="212"/>
       <c r="F58" s="131"/>
       <c r="G58" s="131"/>
       <c r="H58" s="131"/>
@@ -13786,11 +13665,11 @@
       <c r="AO58" s="78"/>
     </row>
     <row r="59" spans="1:45">
-      <c r="A59" s="210"/>
-      <c r="B59" s="210"/>
-      <c r="C59" s="210"/>
-      <c r="D59" s="210"/>
-      <c r="E59" s="210"/>
+      <c r="A59" s="212"/>
+      <c r="B59" s="212"/>
+      <c r="C59" s="212"/>
+      <c r="D59" s="212"/>
+      <c r="E59" s="212"/>
       <c r="F59" s="131"/>
       <c r="G59" s="131"/>
       <c r="H59" s="131"/>
@@ -13875,28 +13754,28 @@
       <c r="A61" s="127"/>
       <c r="B61" s="131"/>
       <c r="C61" s="132"/>
-      <c r="D61" s="205"/>
-      <c r="E61" s="205"/>
-      <c r="F61" s="205"/>
-      <c r="G61" s="205"/>
-      <c r="H61" s="205"/>
-      <c r="I61" s="205"/>
-      <c r="J61" s="205"/>
-      <c r="K61" s="205"/>
-      <c r="L61" s="205"/>
-      <c r="M61" s="205"/>
-      <c r="N61" s="205"/>
-      <c r="O61" s="205"/>
-      <c r="P61" s="205"/>
-      <c r="Q61" s="205"/>
-      <c r="R61" s="205"/>
-      <c r="S61" s="205"/>
-      <c r="T61" s="205"/>
-      <c r="U61" s="205"/>
-      <c r="V61" s="205"/>
-      <c r="W61" s="205"/>
-      <c r="X61" s="205"/>
-      <c r="Y61" s="205"/>
+      <c r="D61" s="207"/>
+      <c r="E61" s="207"/>
+      <c r="F61" s="207"/>
+      <c r="G61" s="207"/>
+      <c r="H61" s="207"/>
+      <c r="I61" s="207"/>
+      <c r="J61" s="207"/>
+      <c r="K61" s="207"/>
+      <c r="L61" s="207"/>
+      <c r="M61" s="207"/>
+      <c r="N61" s="207"/>
+      <c r="O61" s="207"/>
+      <c r="P61" s="207"/>
+      <c r="Q61" s="207"/>
+      <c r="R61" s="207"/>
+      <c r="S61" s="207"/>
+      <c r="T61" s="207"/>
+      <c r="U61" s="207"/>
+      <c r="V61" s="207"/>
+      <c r="W61" s="207"/>
+      <c r="X61" s="207"/>
+      <c r="Y61" s="207"/>
       <c r="Z61" s="133"/>
       <c r="AA61" s="133"/>
       <c r="AB61" s="133"/>
@@ -13915,9 +13794,9 @@
       <c r="AO61" s="78"/>
     </row>
     <row r="62" spans="1:45" s="80" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A62" s="206"/>
-      <c r="B62" s="206"/>
-      <c r="C62" s="206"/>
+      <c r="A62" s="208"/>
+      <c r="B62" s="208"/>
+      <c r="C62" s="208"/>
       <c r="D62" s="134"/>
       <c r="E62" s="134"/>
       <c r="F62" s="134"/>
@@ -20516,19 +20395,19 @@
     </row>
     <row r="11" spans="1:58" ht="13.5">
       <c r="B11" s="107"/>
-      <c r="C11" s="212" t="s">
+      <c r="C11" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="212" t="s">
+      <c r="D11" s="184" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="212" t="s">
+      <c r="E11" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="212" t="s">
+      <c r="F11" s="184" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="212" t="s">
+      <c r="G11" s="184" t="s">
         <v>114</v>
       </c>
       <c r="H11" s="106"/>
@@ -20550,13 +20429,13 @@
     </row>
     <row r="12" spans="1:58" ht="13.5">
       <c r="B12" s="107"/>
-      <c r="C12" s="212">
+      <c r="C12" s="184">
         <v>0</v>
       </c>
-      <c r="D12" s="212"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="212"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="184"/>
       <c r="H12" s="106"/>
       <c r="I12" s="106"/>
       <c r="J12" s="106"/>
@@ -20943,32 +20822,32 @@
     </row>
     <row r="23" spans="2:58" ht="13.5">
       <c r="B23" s="107"/>
-      <c r="C23" s="212" t="s">
+      <c r="C23" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="212" t="s">
+      <c r="D23" s="184" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="212" t="s">
+      <c r="E23" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="212" t="s">
+      <c r="F23" s="184" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="212" t="s">
+      <c r="G23" s="184" t="s">
         <v>114</v>
       </c>
       <c r="BF23" s="101"/>
     </row>
     <row r="24" spans="2:58" ht="13.5">
       <c r="B24" s="107"/>
-      <c r="C24" s="212">
+      <c r="C24" s="184">
         <v>0</v>
       </c>
-      <c r="D24" s="212"/>
-      <c r="E24" s="212"/>
-      <c r="F24" s="212"/>
-      <c r="G24" s="212"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
       <c r="BF24" s="101"/>
     </row>
     <row r="25" spans="2:58" ht="13.5" thickBot="1">
@@ -21216,19 +21095,19 @@
     </row>
     <row r="34" spans="2:58" ht="13.5">
       <c r="B34" s="107"/>
-      <c r="C34" s="212" t="s">
+      <c r="C34" s="184" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="212" t="s">
+      <c r="D34" s="184" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="212" t="s">
+      <c r="E34" s="184" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="212" t="s">
+      <c r="F34" s="184" t="s">
         <v>120</v>
       </c>
-      <c r="G34" s="212" t="s">
+      <c r="G34" s="184" t="s">
         <v>121</v>
       </c>
       <c r="H34" s="106"/>
@@ -21236,19 +21115,19 @@
     </row>
     <row r="35" spans="2:58" ht="13.5">
       <c r="B35" s="107"/>
-      <c r="C35" s="212">
+      <c r="C35" s="184">
         <v>-1</v>
       </c>
-      <c r="D35" s="212" t="s">
+      <c r="D35" s="184" t="s">
         <v>295</v>
       </c>
-      <c r="E35" s="212" t="s">
+      <c r="E35" s="184" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="212" t="s">
-        <v>333</v>
-      </c>
-      <c r="G35" s="212" t="s">
+      <c r="F35" s="184" t="s">
+        <v>332</v>
+      </c>
+      <c r="G35" s="184" t="s">
         <v>275</v>
       </c>
       <c r="H35" s="106"/>
@@ -21501,38 +21380,38 @@
     </row>
     <row r="45" spans="2:58" ht="13.5">
       <c r="B45" s="107"/>
-      <c r="C45" s="212" t="s">
+      <c r="C45" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="212" t="s">
+      <c r="D45" s="184" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="212" t="s">
+      <c r="E45" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="F45" s="212" t="s">
+      <c r="F45" s="184" t="s">
         <v>94</v>
       </c>
-      <c r="G45" s="212" t="s">
+      <c r="G45" s="184" t="s">
         <v>114</v>
       </c>
       <c r="BF45" s="101"/>
     </row>
     <row r="46" spans="2:58" ht="13.5">
       <c r="B46" s="107"/>
-      <c r="C46" s="212">
+      <c r="C46" s="184">
         <v>-2</v>
       </c>
-      <c r="D46" s="212" t="s">
+      <c r="D46" s="184" t="s">
         <v>92</v>
       </c>
-      <c r="E46" s="212" t="s">
+      <c r="E46" s="184" t="s">
         <v>308</v>
       </c>
-      <c r="F46" s="212" t="s">
-        <v>334</v>
-      </c>
-      <c r="G46" s="212" t="s">
+      <c r="F46" s="184" t="s">
+        <v>333</v>
+      </c>
+      <c r="G46" s="184" t="s">
         <v>275</v>
       </c>
       <c r="BF46" s="101"/>
@@ -21766,36 +21645,36 @@
     </row>
     <row r="56" spans="2:58" ht="13.5">
       <c r="B56" s="107"/>
-      <c r="C56" s="212" t="s">
+      <c r="C56" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="212" t="s">
+      <c r="D56" s="184" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="212" t="s">
+      <c r="E56" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="F56" s="212" t="s">
+      <c r="F56" s="184" t="s">
         <v>94</v>
       </c>
-      <c r="G56" s="212" t="s">
+      <c r="G56" s="184" t="s">
         <v>114</v>
       </c>
       <c r="BF56" s="101"/>
     </row>
     <row r="57" spans="2:58" ht="13.5">
       <c r="B57" s="107"/>
-      <c r="C57" s="212">
+      <c r="C57" s="184">
         <v>-1</v>
       </c>
-      <c r="D57" s="212" t="s">
+      <c r="D57" s="184" t="s">
         <v>295</v>
       </c>
-      <c r="E57" s="212"/>
-      <c r="F57" s="212" t="s">
-        <v>335</v>
-      </c>
-      <c r="G57" s="212" t="s">
+      <c r="E57" s="184"/>
+      <c r="F57" s="184" t="s">
+        <v>334</v>
+      </c>
+      <c r="G57" s="184" t="s">
         <v>277</v>
       </c>
       <c r="BF57" s="101"/>
@@ -22041,38 +21920,38 @@
     </row>
     <row r="67" spans="2:58" ht="13.5">
       <c r="B67" s="107"/>
-      <c r="C67" s="212" t="s">
+      <c r="C67" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="D67" s="212" t="s">
+      <c r="D67" s="184" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="212" t="s">
+      <c r="E67" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="F67" s="212" t="s">
+      <c r="F67" s="184" t="s">
         <v>94</v>
       </c>
-      <c r="G67" s="212" t="s">
+      <c r="G67" s="184" t="s">
         <v>114</v>
       </c>
       <c r="BF67" s="101"/>
     </row>
     <row r="68" spans="2:58" ht="13.5">
       <c r="B68" s="107"/>
-      <c r="C68" s="212">
+      <c r="C68" s="184">
         <v>-2</v>
       </c>
-      <c r="D68" s="212" t="s">
+      <c r="D68" s="184" t="s">
         <v>92</v>
       </c>
-      <c r="E68" s="212" t="s">
+      <c r="E68" s="184" t="s">
         <v>312</v>
       </c>
-      <c r="F68" s="212" t="s">
+      <c r="F68" s="184" t="s">
         <v>313</v>
       </c>
-      <c r="G68" s="212" t="s">
+      <c r="G68" s="184" t="s">
         <v>277</v>
       </c>
       <c r="BF68" s="101"/>
@@ -22325,19 +22204,19 @@
     </row>
     <row r="78" spans="2:58" ht="13.5">
       <c r="B78" s="107"/>
-      <c r="C78" s="212" t="s">
+      <c r="C78" s="184" t="s">
         <v>118</v>
       </c>
-      <c r="D78" s="212" t="s">
+      <c r="D78" s="184" t="s">
         <v>119</v>
       </c>
-      <c r="E78" s="212" t="s">
+      <c r="E78" s="184" t="s">
         <v>95</v>
       </c>
-      <c r="F78" s="212" t="s">
+      <c r="F78" s="184" t="s">
         <v>120</v>
       </c>
-      <c r="G78" s="212" t="s">
+      <c r="G78" s="184" t="s">
         <v>121</v>
       </c>
       <c r="H78" s="106"/>
@@ -22346,20 +22225,20 @@
     </row>
     <row r="79" spans="2:58" ht="13.5">
       <c r="B79" s="107"/>
-      <c r="C79" s="212">
+      <c r="C79" s="184">
         <v>-1</v>
       </c>
-      <c r="D79" s="212" t="s">
-        <v>337</v>
-      </c>
-      <c r="E79" s="212" t="s">
+      <c r="D79" s="184" t="s">
+        <v>336</v>
+      </c>
+      <c r="E79" s="184" t="s">
         <v>122</v>
       </c>
-      <c r="F79" s="212" t="s">
-        <v>336</v>
-      </c>
-      <c r="G79" s="212" t="s">
-        <v>338</v>
+      <c r="F79" s="184" t="s">
+        <v>335</v>
+      </c>
+      <c r="G79" s="185" t="s">
+        <v>314</v>
       </c>
       <c r="H79" s="106"/>
       <c r="I79" s="106"/>
@@ -22628,19 +22507,19 @@
     </row>
     <row r="89" spans="2:58" ht="13.5">
       <c r="B89" s="107"/>
-      <c r="C89" s="212" t="s">
+      <c r="C89" s="184" t="s">
         <v>118</v>
       </c>
-      <c r="D89" s="212" t="s">
+      <c r="D89" s="184" t="s">
         <v>119</v>
       </c>
-      <c r="E89" s="212" t="s">
+      <c r="E89" s="184" t="s">
         <v>95</v>
       </c>
-      <c r="F89" s="212" t="s">
+      <c r="F89" s="184" t="s">
         <v>120</v>
       </c>
-      <c r="G89" s="212" t="s">
+      <c r="G89" s="184" t="s">
         <v>121</v>
       </c>
       <c r="H89" s="106"/>
@@ -22649,17 +22528,17 @@
     </row>
     <row r="90" spans="2:58" ht="13.5">
       <c r="B90" s="107"/>
-      <c r="C90" s="212">
+      <c r="C90" s="184">
         <v>-2</v>
       </c>
-      <c r="D90" s="212"/>
-      <c r="E90" s="212" t="s">
+      <c r="D90" s="184"/>
+      <c r="E90" s="184" t="s">
         <v>325</v>
       </c>
-      <c r="F90" s="212" t="s">
+      <c r="F90" s="184" t="s">
         <v>326</v>
       </c>
-      <c r="G90" s="212" t="s">
+      <c r="G90" s="184" t="s">
         <v>79</v>
       </c>
       <c r="H90" s="106"/>
@@ -23574,33 +23453,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e47b21de-6aa2-4397-bc9c-dfadd9f0c5dc" xsi:nil="true"/>
-    <_x72b6__x614b__x7ba1__x7406_ xmlns="4d5f495e-8872-4613-b41e-44adb53a887e" xsi:nil="true"/>
-    <_x7d0d__x671f_ xmlns="4d5f495e-8872-4613-b41e-44adb53a887e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4d5f495e-8872-4613-b41e-44adb53a887e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_Flow_SignoffStatus xmlns="4d5f495e-8872-4613-b41e-44adb53a887e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100CE4925CEB4767D4088405B3A37F02A88" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="074d3528a928c679d67d1ad12dfa4912">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5f495e-8872-4613-b41e-44adb53a887e" xmlns:ns3="e47b21de-6aa2-4397-bc9c-dfadd9f0c5dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1deb7a9c2e5ecc746ac0194f551b1971" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5f495e-8872-4613-b41e-44adb53a887e"/>
@@ -23855,7 +23707,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e47b21de-6aa2-4397-bc9c-dfadd9f0c5dc" xsi:nil="true"/>
+    <_x72b6__x614b__x7ba1__x7406_ xmlns="4d5f495e-8872-4613-b41e-44adb53a887e" xsi:nil="true"/>
+    <_x7d0d__x671f_ xmlns="4d5f495e-8872-4613-b41e-44adb53a887e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4d5f495e-8872-4613-b41e-44adb53a887e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_Flow_SignoffStatus xmlns="4d5f495e-8872-4613-b41e-44adb53a887e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7EEBDC7-076F-4ACD-8DBF-C49B4CC77BAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4d5f495e-8872-4613-b41e-44adb53a887e"/>
+    <ds:schemaRef ds:uri="e47b21de-6aa2-4397-bc9c-dfadd9f0c5dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84B6BF48-E3F6-4B13-9192-4EFFE42803ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -23863,7 +23761,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2FADD67-DD7C-4D45-8940-C6EB8B5BA1F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -23880,29 +23778,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2B1990-BD69-40EB-A43C-6C4C780A6DE4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7EEBDC7-076F-4ACD-8DBF-C49B4CC77BAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4d5f495e-8872-4613-b41e-44adb53a887e"/>
-    <ds:schemaRef ds:uri="e47b21de-6aa2-4397-bc9c-dfadd9f0c5dc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>